--- a/assets/yash.xlsx
+++ b/assets/yash.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yash\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dart Flutter\Flutter projects\digitalsignature\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20D207B-6A34-403D-B50C-FCB97109BA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0787B084-5DD1-416F-BBA8-651848A30874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{2E8634F3-9450-4397-89C6-30855A93571C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E8634F3-9450-4397-89C6-30855A93571C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,31 +42,31 @@
     <t xml:space="preserve"> Name</t>
   </si>
   <si>
-    <t>Subject 1</t>
-  </si>
-  <si>
-    <t>Subject 2</t>
-  </si>
-  <si>
-    <t>Subject 3</t>
-  </si>
-  <si>
-    <t>Subject 4</t>
-  </si>
-  <si>
-    <t>Subject 5</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
-    <t>Yash</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>Subject 6</t>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>Yaswanth</t>
+  </si>
+  <si>
+    <t>Chandu</t>
   </si>
 </sst>
 </file>
@@ -422,7 +421,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,25 +434,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -461,7 +460,7 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>85</v>
@@ -490,7 +489,7 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>90</v>
